--- a/config_debug/activity_052_qfhl_config.xlsx
+++ b/config_debug/activity_052_qfhl_config.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>line</t>
   </si>
@@ -157,7 +157,13 @@
     <t>change_type</t>
   </si>
   <si>
+    <t>data_type</t>
+  </si>
+  <si>
     <t>box_exchange_active_award_96</t>
+  </si>
+  <si>
+    <t>qfhl_lottery</t>
   </si>
   <si>
     <t>box_exchange_active_award_97</t>
@@ -208,9 +214,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -233,6 +239,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -242,44 +284,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,11 +306,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -307,6 +336,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -316,39 +361,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,13 +382,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -386,49 +392,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,133 +566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,16 +587,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,16 +617,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,15 +683,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -685,10 +691,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,133 +703,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1562,20 +1568,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
     <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1588,8 +1594,11 @@
       <c r="D1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1600,10 +1609,13 @@
         <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1614,10 +1626,13 @@
         <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1628,6 +1643,9 @@
         <v>98</v>
       </c>
       <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1659,13 +1677,13 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:4">
@@ -1673,13 +1691,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:4">
@@ -1687,13 +1705,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:4">
@@ -1701,13 +1719,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/activity_052_qfhl_config.xlsx
+++ b/config_debug/activity_052_qfhl_config.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>line</t>
   </si>
@@ -40,12 +40,18 @@
     <t>condiy_key</t>
   </si>
   <si>
+    <t>data_type</t>
+  </si>
+  <si>
     <t>"prop_fish_drop_act_0","prop_grade",</t>
   </si>
   <si>
     <t>300,10</t>
   </si>
   <si>
+    <t>qfhl_lottery</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -157,13 +163,7 @@
     <t>change_type</t>
   </si>
   <si>
-    <t>data_type</t>
-  </si>
-  <si>
     <t>box_exchange_active_award_96</t>
-  </si>
-  <si>
-    <t>qfhl_lottery</t>
   </si>
   <si>
     <t>box_exchange_active_award_97</t>
@@ -239,6 +239,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -246,8 +291,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,16 +346,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,90 +376,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -392,187 +392,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,32 +586,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,38 +621,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +674,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -691,10 +691,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,133 +703,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,13 +1203,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="37.25" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
@@ -1218,7 +1218,7 @@
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1240,8 +1240,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1249,16 +1252,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>1623110400</v>
       </c>
       <c r="F2">
         <v>1623686399</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1285,22 +1291,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:6">
@@ -1308,13 +1314,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2">
         <v>12073</v>
@@ -1325,13 +1331,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
         <v>12074</v>
@@ -1342,13 +1348,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2">
         <v>12075</v>
@@ -1359,13 +1365,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2">
         <v>12076</v>
@@ -1376,13 +1382,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2">
         <v>12077</v>
@@ -1393,13 +1399,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2">
         <v>12078</v>
@@ -1410,13 +1416,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2">
         <v>12079</v>
@@ -1427,13 +1433,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2">
         <v>12080</v>
@@ -1444,13 +1450,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2">
         <v>12081</v>
@@ -1461,13 +1467,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2">
         <v>12082</v>
@@ -1478,13 +1484,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2">
         <v>12083</v>
@@ -1495,13 +1501,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2">
         <v>12084</v>
@@ -1512,13 +1518,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2">
         <v>12085</v>
@@ -1529,13 +1535,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2">
         <v>12086</v>
@@ -1546,13 +1552,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2">
         <v>12087</v>
@@ -1568,37 +1574,34 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
     <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1609,13 +1612,10 @@
         <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1628,11 +1628,8 @@
       <c r="D3" t="s">
         <v>49</v>
       </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1644,9 +1641,6 @@
       </c>
       <c r="D4" t="s">
         <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1668,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>51</v>

--- a/config_debug/activity_052_qfhl_config.xlsx
+++ b/config_debug/activity_052_qfhl_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="cfg" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>line</t>
   </si>
@@ -43,6 +43,9 @@
     <t>data_type</t>
   </si>
   <si>
+    <t>data_other_type</t>
+  </si>
+  <si>
     <t>"prop_fish_drop_act_0","prop_grade",</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
   </si>
   <si>
     <t>qfhl_lottery</t>
+  </si>
+  <si>
+    <t>qfhl_1_lottery</t>
   </si>
   <si>
     <t>id</t>
@@ -214,8 +220,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -239,6 +245,95 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -247,13 +342,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -262,30 +350,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,11 +374,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,74 +388,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -392,187 +398,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,50 +589,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -660,6 +622,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -675,11 +655,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,10 +697,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,133 +709,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,22 +1209,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="3" max="3" width="37.25" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
     <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="13.375" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1243,8 +1251,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1252,10 +1263,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>1623110400</v>
@@ -1264,7 +1275,10 @@
         <v>1623686399</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1291,22 +1305,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:6">
@@ -1314,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>12073</v>
@@ -1331,13 +1345,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2">
         <v>12074</v>
@@ -1348,13 +1362,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2">
         <v>12075</v>
@@ -1365,13 +1379,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2">
         <v>12076</v>
@@ -1382,13 +1396,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2">
         <v>12077</v>
@@ -1399,13 +1413,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2">
         <v>12078</v>
@@ -1416,13 +1430,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2">
         <v>12079</v>
@@ -1433,13 +1447,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2">
         <v>12080</v>
@@ -1450,13 +1464,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2">
         <v>12081</v>
@@ -1467,13 +1481,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2">
         <v>12082</v>
@@ -1484,13 +1498,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2">
         <v>12083</v>
@@ -1501,13 +1515,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2">
         <v>12084</v>
@@ -1518,13 +1532,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F14" s="2">
         <v>12085</v>
@@ -1535,13 +1549,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2">
         <v>12086</v>
@@ -1552,13 +1566,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2">
         <v>12087</v>
@@ -1576,7 +1590,7 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -1589,16 +1603,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1612,7 +1626,7 @@
         <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1626,7 +1640,7 @@
         <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1640,7 +1654,7 @@
         <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1668,16 +1682,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:4">
@@ -1685,13 +1699,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:4">
@@ -1699,13 +1713,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:4">
@@ -1713,13 +1727,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/activity_052_qfhl_config.xlsx
+++ b/config_debug/activity_052_qfhl_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cfg" sheetId="5" r:id="rId1"/>
@@ -296,10 +296,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>activity_icon_gift151_pg13pro</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>activity_icon_gift151_kl</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -312,7 +308,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>activity_icon_gift151_mddhg</t>
+    <t>activity_icon_gift151_dg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_icon_pg13pro</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -837,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1206,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>54</v>
@@ -1220,7 +1220,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>55</v>
@@ -1234,7 +1234,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>56</v>
